--- a/final/tests/studysync_tests.xlsx
+++ b/final/tests/studysync_tests.xlsx
@@ -8,17 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gagefleming/university_of_london/current_courses/agile_software_projects/cm2020/final/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B0A26A-4B03-1A4B-B2B9-366CEA488C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98629A40-E70D-C443-B3BE-426CA1061AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="4.3.2" sheetId="2" r:id="rId1"/>
-    <sheet name="4.3.3" sheetId="3" r:id="rId2"/>
-    <sheet name="4.3.4" sheetId="4" r:id="rId3"/>
-    <sheet name="4.3.5" sheetId="5" r:id="rId4"/>
-    <sheet name="4.3.6" sheetId="6" r:id="rId5"/>
-    <sheet name="4.3.7" sheetId="7" r:id="rId6"/>
+    <sheet name="4.3.4" sheetId="4" r:id="rId1"/>
+    <sheet name="4.3.5" sheetId="5" r:id="rId2"/>
+    <sheet name="4.3.6" sheetId="6" r:id="rId3"/>
+    <sheet name="4.3.7" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="147">
   <si>
     <t>Objective and Priority</t>
   </si>
@@ -89,79 +87,10 @@
     <t>Estimated Duration:</t>
   </si>
   <si>
-    <t>4.3.3 Edit the Whitelist Form</t>
-  </si>
-  <si>
     <t>4.3.5 Track Coursera Study Time</t>
   </si>
   <si>
     <t>4.3.7 Adjust Time-Tracker Settings</t>
-  </si>
-  <si>
-    <t>4.3.2.1</t>
-  </si>
-  <si>
-    <t>4.3.2 Navigate the HTML pages via the Navbar</t>
-  </si>
-  <si>
-    <t>HTML pages navbar functionality</t>
-  </si>
-  <si>
-    <t>4.3.2.1.1</t>
-  </si>
-  <si>
-    <t>Test that when the user clicks on the whitelist navigation link, StudySync shall direct the user to the whitelist form page.</t>
-  </si>
-  <si>
-    <t>Test that When the user clicks on the data dashboard navigation link, StudySync shall direct the user to the data dashboard page.</t>
-  </si>
-  <si>
-    <t>4.3.2.1.2</t>
-  </si>
-  <si>
-    <t>Test that When the user clicks on the time-tracker settings navigation link, StudySync shall direct the user to the time-tracker settings page.</t>
-  </si>
-  <si>
-    <t>4.3.2.1.3</t>
-  </si>
-  <si>
-    <t>Continue to test 4.3.2.1.2</t>
-  </si>
-  <si>
-    <t>Continue to test 4.3.2.1.3</t>
-  </si>
-  <si>
-    <t>Continue to test 4.3.3.1.1</t>
-  </si>
-  <si>
-    <t>4.3.3.1</t>
-  </si>
-  <si>
-    <t>Editing whitelist form</t>
-  </si>
-  <si>
-    <t>Test that StudySync allow the user to enter a new URL into the whitelist form.</t>
-  </si>
-  <si>
-    <t>Test that StudySync allow the user to remove a saved URL..</t>
-  </si>
-  <si>
-    <t>4.3.3.1.1</t>
-  </si>
-  <si>
-    <t>4.3.3.1.2</t>
-  </si>
-  <si>
-    <t>4.3.3.1.3</t>
-  </si>
-  <si>
-    <t>Continue to test 4.3.3.1.2</t>
-  </si>
-  <si>
-    <t>Continue to test 4.3.3.1.3</t>
-  </si>
-  <si>
-    <t>Continue to test 4.3.4.1.1</t>
   </si>
   <si>
     <t>4.3.4 Whitelist all Attempted URL Queries</t>
@@ -330,70 +259,13 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Startup: Open browser, click on StudySync extension, Click on settings page, Click on whitelist menu</t>
-  </si>
-  <si>
-    <t>Startup:  Open browser, click on StudySync extension, Click on settings page, Click on Data Dashboard menu</t>
-  </si>
-  <si>
-    <t>Startup:  Open browser, click on StudySync extension, Click on settings page, Click on Timetracker settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if the  Whitelist menu displays Whitelist form page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirm clicking on Whitelist menu displays Whitelist form page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirm clicking on  data dashboard navigation link displays data dashboard form page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if the   data dashboard navigation link displays data dashboard form page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirm clicking on  time-tracker settings navigation link displays data dashboard form page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if the time-tracker settings navigation link displays data dashboard form page </t>
-  </si>
-  <si>
-    <t>Startup: Open browser, click on StudySync extension, Click on settings page, Click on Data whitelist menu</t>
-  </si>
-  <si>
-    <t>URL www.youtube.com  is added to the list</t>
-  </si>
-  <si>
     <t>www.youtube.com website should be displayed</t>
   </si>
   <si>
-    <t>Check that whitelist is removed from the list and user cannot navigate to website www.youtube.com</t>
-  </si>
-  <si>
-    <t>Test that When the user clicks the save button, StudySync shall save the current whitelist form.</t>
-  </si>
-  <si>
     <t>Click on th url entered www.youtube.com. Confirm it navigates to the website</t>
   </si>
   <si>
-    <t>Click on Save button  Confirm Whitelist form is saved</t>
-  </si>
-  <si>
-    <t>Check if the whitelist page is saved</t>
-  </si>
-  <si>
-    <t>Navigate to Datadashboard page and then press Whitelist men button. Confirm if the last saved whitelist page is displayed</t>
-  </si>
-  <si>
-    <t>Check if the last saved whitelist page is displayed</t>
-  </si>
-  <si>
     <t>Test that StudySync alerts the user via a custom URL page indicatng the requested URL has been blocked.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on the bin button besides url. Confirm whitelisted url is removed </t>
-  </si>
-  <si>
-    <t>Enter URL in whitelist text box. Click on Add to White list button. Confirm url is added to whitelist</t>
   </si>
   <si>
     <t>Click on th url entered idp.uolia.london.ac.uk Confirm it navigates to the website</t>
@@ -740,20 +612,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1139,1100 +1011,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9AA70D-5410-462A-B36C-B35BAA53B98D}">
-  <dimension ref="B1:R21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="24.5" customWidth="1"/>
-    <col min="11" max="11" width="28.5" customWidth="1"/>
-    <col min="12" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.6640625" customWidth="1"/>
-    <col min="16" max="16" width="23" customWidth="1"/>
-    <col min="17" max="17" width="18.1640625" customWidth="1"/>
-    <col min="18" max="18" width="32.5" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B1" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="H4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="N4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B7" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="H7" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="N7" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="H8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="N8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B9" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="H9" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="N9" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-    </row>
-    <row r="10" spans="2:18" ht="14" x14ac:dyDescent="0.15">
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="H13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="N13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="H15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="N15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-    </row>
-    <row r="16" spans="2:18" ht="14" x14ac:dyDescent="0.15">
-      <c r="B16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" ht="56" x14ac:dyDescent="0.15">
-      <c r="B17" s="6">
-        <v>1</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="6">
-        <v>1</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N17" s="6">
-        <v>1</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B18" s="6"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B19" s="6"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B20" s="1"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="H21" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="N21" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="N21:R21"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="H21:L21"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA13C14-0D9E-43FF-87BC-0D55745E5A2B}">
-  <dimension ref="B1:R21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
-    <col min="10" max="10" width="24.5" customWidth="1"/>
-    <col min="11" max="11" width="28.5" customWidth="1"/>
-    <col min="12" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.6640625" customWidth="1"/>
-    <col min="16" max="16" width="23" customWidth="1"/>
-    <col min="17" max="17" width="18.1640625" customWidth="1"/>
-    <col min="18" max="18" width="32.5" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B1" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="H4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="N4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B7" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="H7" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="N7" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="H8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="N8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B9" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="H9" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="N9" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-    </row>
-    <row r="10" spans="2:18" ht="14" x14ac:dyDescent="0.15">
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="H13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="N13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="H15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="N15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-    </row>
-    <row r="16" spans="2:18" ht="14" x14ac:dyDescent="0.15">
-      <c r="B16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" ht="56" x14ac:dyDescent="0.15">
-      <c r="B17" s="6">
-        <v>1</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="6">
-        <v>1</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N17" s="6">
-        <v>1</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" ht="56" x14ac:dyDescent="0.15">
-      <c r="B18" s="6">
-        <v>2</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="N18" s="6">
-        <v>2</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B19" s="6"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B20" s="1"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B21" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="H21" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="N21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="N21:R21"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="O6:Q6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9592081E-B80D-4E9B-8A22-A8CCF80B34DE}">
   <dimension ref="B1:AD21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC20" sqref="AC20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2267,20 +1050,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B1" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B3" s="3"/>
@@ -2291,46 +1074,46 @@
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="H4" s="9" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="N4" s="9" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="P4" s="9"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="T4" s="9" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="V4" s="9"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Z4" s="9" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="AA4" s="10" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="AB4" s="9"/>
       <c r="AC4" s="3"/>
@@ -2340,226 +1123,226 @@
       <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
       <c r="L5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
       <c r="R5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="T5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="U5" s="12" t="s">
+      <c r="U5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
       <c r="X5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Z5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AA5" s="12" t="s">
+      <c r="AA5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
       <c r="AD5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
       <c r="L6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
+        <v>26</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
       <c r="R6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="U6" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
+        <v>34</v>
+      </c>
+      <c r="U6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
       <c r="X6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="Z6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA6" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
+        <v>36</v>
+      </c>
+      <c r="AA6" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
       <c r="AD6" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B7" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="H7" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="N7" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="T7" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Z7" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
+      <c r="B7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="H7" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="N7" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="T7" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Z7" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="H8" s="13" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="H8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="N8" s="13" t="s">
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="N8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="T8" s="13" t="s">
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="T8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Z8" s="13" t="s">
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Z8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="H9" s="17" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="H9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="N9" s="17" t="s">
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="N9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="T9" s="17" t="s">
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="T9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Z9" s="17" t="s">
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Z9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
     </row>
     <row r="10" spans="2:30" ht="14" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
@@ -2568,10 +1351,10 @@
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
@@ -2581,10 +1364,10 @@
       <c r="I10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="17"/>
+      <c r="K10" s="15"/>
       <c r="L10" s="2" t="s">
         <v>5</v>
       </c>
@@ -2594,10 +1377,10 @@
       <c r="O10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P10" s="17" t="s">
+      <c r="P10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="17"/>
+      <c r="Q10" s="15"/>
       <c r="R10" s="2" t="s">
         <v>5</v>
       </c>
@@ -2607,10 +1390,10 @@
       <c r="U10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="V10" s="17" t="s">
+      <c r="V10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="W10" s="17"/>
+      <c r="W10" s="15"/>
       <c r="X10" s="2" t="s">
         <v>5</v>
       </c>
@@ -2620,10 +1403,10 @@
       <c r="AA10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AB10" s="17" t="s">
+      <c r="AB10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AC10" s="17"/>
+      <c r="AC10" s="15"/>
       <c r="AD10" s="2" t="s">
         <v>5</v>
       </c>
@@ -2683,78 +1466,78 @@
       <c r="AD12" s="1"/>
     </row>
     <row r="13" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="H13" s="13" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="H13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="N13" s="13" t="s">
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="N13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="T13" s="13" t="s">
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="T13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Z13" s="13" t="s">
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Z13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="H15" s="12" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="H15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="N15" s="12" t="s">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="N15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="T15" s="12" t="s">
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="T15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Z15" s="12" t="s">
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Z15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
     </row>
     <row r="16" spans="2:30" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
@@ -2838,10 +1621,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
@@ -2851,10 +1634,10 @@
         <v>1</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5" t="s">
@@ -2864,10 +1647,10 @@
         <v>1</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="5"/>
       <c r="R17" s="5" t="s">
@@ -2877,10 +1660,10 @@
         <v>1</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="W17" s="5"/>
       <c r="X17" s="5" t="s">
@@ -2890,10 +1673,10 @@
         <v>1</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="AB17" s="5" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
@@ -2903,10 +1686,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
@@ -2916,10 +1699,10 @@
         <v>2</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5" t="s">
@@ -2929,10 +1712,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="Q18" s="5"/>
       <c r="R18" s="5" t="s">
@@ -2942,10 +1725,10 @@
         <v>2</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="W18" s="5"/>
       <c r="X18" s="5" t="s">
@@ -2955,10 +1738,10 @@
         <v>2</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="AB18" s="5" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
@@ -2968,10 +1751,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
@@ -2981,10 +1764,10 @@
         <v>3</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5" t="s">
@@ -2994,10 +1777,10 @@
         <v>3</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="Q19" s="5"/>
       <c r="R19" s="5" t="s">
@@ -3012,10 +1795,10 @@
         <v>3</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="AB19" s="5" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
@@ -3025,10 +1808,10 @@
         <v>4</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
@@ -3038,10 +1821,10 @@
         <v>4</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="5" t="s">
@@ -3051,10 +1834,10 @@
         <v>4</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="5" t="s">
@@ -3069,50 +1852,50 @@
         <v>4</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B21" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="H21" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="N21" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="T21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Z21" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
+      <c r="B21" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="H21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="N21" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="T21" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Z21" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="46">
@@ -3167,7 +1950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9102DA5-F2C5-4BA6-8D73-AC77898C0DB8}">
   <dimension ref="B1:AD21"/>
   <sheetViews>
@@ -3207,20 +1990,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B1" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B3" s="3"/>
@@ -3231,46 +2014,46 @@
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="H4" s="9" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="N4" s="9" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="P4" s="9"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="T4" s="9" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="V4" s="9"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Z4" s="9" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="AA4" s="10" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AB4" s="9"/>
       <c r="AC4" s="3"/>
@@ -3280,226 +2063,226 @@
       <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
       <c r="L5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
       <c r="R5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="T5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="U5" s="12" t="s">
+      <c r="U5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
       <c r="X5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Z5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AA5" s="12" t="s">
+      <c r="AA5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
       <c r="AD5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+        <v>40</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+        <v>43</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
       <c r="L6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
+        <v>45</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
       <c r="R6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="U6" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
+        <v>47</v>
+      </c>
+      <c r="U6" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
       <c r="X6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="Z6" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA6" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="AA6" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
       <c r="AD6" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="H7" s="13" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="H7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="N7" s="13" t="s">
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="N7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="T7" s="13" t="s">
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="T7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Z7" s="13" t="s">
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Z7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="H8" s="13" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="H8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="N8" s="13" t="s">
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="N8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="T8" s="13" t="s">
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="T8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Z8" s="13" t="s">
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Z8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="H9" s="17" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="H9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="N9" s="17" t="s">
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="N9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="T9" s="17" t="s">
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="T9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Z9" s="17" t="s">
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Z9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
     </row>
     <row r="10" spans="2:30" ht="14" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
@@ -3508,10 +2291,10 @@
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
@@ -3521,10 +2304,10 @@
       <c r="I10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="17"/>
+      <c r="K10" s="15"/>
       <c r="L10" s="2" t="s">
         <v>5</v>
       </c>
@@ -3534,10 +2317,10 @@
       <c r="O10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P10" s="17" t="s">
+      <c r="P10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="17"/>
+      <c r="Q10" s="15"/>
       <c r="R10" s="2" t="s">
         <v>5</v>
       </c>
@@ -3547,10 +2330,10 @@
       <c r="U10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="V10" s="17" t="s">
+      <c r="V10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="W10" s="17"/>
+      <c r="W10" s="15"/>
       <c r="X10" s="2" t="s">
         <v>5</v>
       </c>
@@ -3560,10 +2343,10 @@
       <c r="AA10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AB10" s="17" t="s">
+      <c r="AB10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AC10" s="17"/>
+      <c r="AC10" s="15"/>
       <c r="AD10" s="2" t="s">
         <v>5</v>
       </c>
@@ -3623,78 +2406,78 @@
       <c r="AD12" s="1"/>
     </row>
     <row r="13" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="H13" s="13" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="H13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="N13" s="13" t="s">
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="N13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="T13" s="13" t="s">
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="T13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Z13" s="13" t="s">
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Z13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="H15" s="12" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="H15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="N15" s="12" t="s">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="N15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="T15" s="12" t="s">
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="T15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Z15" s="12" t="s">
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Z15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
     </row>
     <row r="16" spans="2:30" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
@@ -3778,10 +2561,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
@@ -3791,10 +2574,10 @@
         <v>1</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5" t="s">
@@ -3804,10 +2587,10 @@
         <v>1</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="5"/>
       <c r="R17" s="5" t="s">
@@ -3817,10 +2600,10 @@
         <v>1</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="W17" s="5"/>
       <c r="X17" s="5" t="s">
@@ -3830,7 +2613,7 @@
         <v>1</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
@@ -3840,7 +2623,7 @@
     </row>
     <row r="18" spans="2:30" ht="56" x14ac:dyDescent="0.15">
       <c r="B18" s="6" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -3866,10 +2649,10 @@
         <v>2</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="W18" s="5"/>
       <c r="X18" s="5" t="s">
@@ -3907,10 +2690,10 @@
         <v>3</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="W19" s="5"/>
       <c r="X19" s="5" t="s">
@@ -3942,10 +2725,10 @@
         <v>4</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="W20" s="4"/>
       <c r="X20" s="5" t="s">
@@ -3958,41 +2741,41 @@
       <c r="AD20" s="4"/>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B21" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="H21" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="N21" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="T21" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Z21" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
+      <c r="B21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="H21" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="N21" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="T21" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Z21" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="46">
@@ -4050,7 +2833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ADCB92-BF29-46E1-BB22-E1FC23D9F8E7}">
   <dimension ref="B1:AP21"/>
   <sheetViews>
@@ -4098,20 +2881,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:42" x14ac:dyDescent="0.15">
-      <c r="B1" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.15">
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B3" s="3"/>
@@ -4122,64 +2905,64 @@
     </row>
     <row r="4" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="H4" s="9" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="N4" s="9" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="P4" s="9"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="T4" s="9" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="V4" s="9"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Z4" s="9" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="AA4" s="10" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="AB4" s="9"/>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
       <c r="AF4" s="9" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="AG4" s="10" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="AH4" s="9"/>
       <c r="AI4" s="3"/>
       <c r="AJ4" s="3"/>
       <c r="AL4" s="9" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="AM4" s="10" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="AN4" s="9"/>
       <c r="AO4" s="3"/>
@@ -4189,312 +2972,312 @@
       <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
       <c r="L5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
       <c r="R5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="T5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="U5" s="12" t="s">
+      <c r="U5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
       <c r="X5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Z5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AA5" s="12" t="s">
+      <c r="AA5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
       <c r="AD5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="AF5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AG5" s="12" t="s">
+      <c r="AG5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
       <c r="AJ5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="AL5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AM5" s="12" t="s">
+      <c r="AM5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="12"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
       <c r="AP5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:42" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+        <v>55</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+        <v>57</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
       <c r="L6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
+        <v>59</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
       <c r="R6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="U6" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
+        <v>61</v>
+      </c>
+      <c r="U6" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
       <c r="X6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="Z6" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA6" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
+        <v>63</v>
+      </c>
+      <c r="AA6" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
       <c r="AD6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="AF6" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG6" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
+        <v>65</v>
+      </c>
+      <c r="AG6" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
       <c r="AJ6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="AL6" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM6" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN6" s="15"/>
-      <c r="AO6" s="15"/>
+        <v>67</v>
+      </c>
+      <c r="AM6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="17"/>
       <c r="AP6" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:42" x14ac:dyDescent="0.15">
-      <c r="B7" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="H7" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="N7" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="T7" s="13" t="s">
+      <c r="B7" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="H7" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="N7" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="T7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Z7" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AF7" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="13"/>
-      <c r="AJ7" s="13"/>
-      <c r="AL7" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="13"/>
-      <c r="AO7" s="13"/>
-      <c r="AP7" s="13"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Z7" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AF7" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AL7" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
     </row>
     <row r="8" spans="2:42" x14ac:dyDescent="0.15">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="H8" s="13" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="H8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="N8" s="13" t="s">
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="N8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="T8" s="13" t="s">
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="T8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Z8" s="13" t="s">
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Z8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AF8" s="13" t="s">
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AF8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AL8" s="13" t="s">
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AL8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="13"/>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="13"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
     </row>
     <row r="9" spans="2:42" x14ac:dyDescent="0.15">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="H9" s="17" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="H9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="N9" s="17" t="s">
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="N9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="T9" s="17" t="s">
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="T9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Z9" s="17" t="s">
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Z9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AF9" s="17" t="s">
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AF9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AG9" s="17"/>
-      <c r="AH9" s="17"/>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="17"/>
-      <c r="AL9" s="17" t="s">
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AL9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AM9" s="17"/>
-      <c r="AN9" s="17"/>
-      <c r="AO9" s="17"/>
-      <c r="AP9" s="17"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15"/>
+      <c r="AP9" s="15"/>
     </row>
     <row r="10" spans="2:42" ht="14" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
@@ -4503,10 +3286,10 @@
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
@@ -4516,10 +3299,10 @@
       <c r="I10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="17"/>
+      <c r="K10" s="15"/>
       <c r="L10" s="2" t="s">
         <v>5</v>
       </c>
@@ -4529,10 +3312,10 @@
       <c r="O10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P10" s="17" t="s">
+      <c r="P10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="17"/>
+      <c r="Q10" s="15"/>
       <c r="R10" s="2" t="s">
         <v>5</v>
       </c>
@@ -4542,10 +3325,10 @@
       <c r="U10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="V10" s="17" t="s">
+      <c r="V10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="W10" s="17"/>
+      <c r="W10" s="15"/>
       <c r="X10" s="2" t="s">
         <v>5</v>
       </c>
@@ -4555,10 +3338,10 @@
       <c r="AA10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AB10" s="17" t="s">
+      <c r="AB10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AC10" s="17"/>
+      <c r="AC10" s="15"/>
       <c r="AD10" s="2" t="s">
         <v>5</v>
       </c>
@@ -4568,10 +3351,10 @@
       <c r="AG10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AH10" s="17" t="s">
+      <c r="AH10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AI10" s="17"/>
+      <c r="AI10" s="15"/>
       <c r="AJ10" s="2" t="s">
         <v>5</v>
       </c>
@@ -4581,10 +3364,10 @@
       <c r="AM10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AN10" s="17" t="s">
+      <c r="AN10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AO10" s="17"/>
+      <c r="AO10" s="15"/>
       <c r="AP10" s="2" t="s">
         <v>5</v>
       </c>
@@ -4664,106 +3447,106 @@
       <c r="AP12" s="1"/>
     </row>
     <row r="13" spans="2:42" x14ac:dyDescent="0.15">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="H13" s="13" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="H13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="N13" s="13" t="s">
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="N13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="T13" s="13" t="s">
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="T13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Z13" s="13" t="s">
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Z13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AF13" s="13" t="s">
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AF13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="13"/>
-      <c r="AL13" s="13" t="s">
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AL13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AM13" s="13"/>
-      <c r="AN13" s="13"/>
-      <c r="AO13" s="13"/>
-      <c r="AP13" s="13"/>
+      <c r="AM13" s="14"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="14"/>
+      <c r="AP13" s="14"/>
     </row>
     <row r="15" spans="2:42" x14ac:dyDescent="0.15">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="H15" s="12" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="H15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="N15" s="12" t="s">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="N15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="T15" s="12" t="s">
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="T15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Z15" s="12" t="s">
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Z15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AF15" s="12" t="s">
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AF15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="12"/>
-      <c r="AJ15" s="12"/>
-      <c r="AL15" s="12" t="s">
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AL15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AM15" s="12"/>
-      <c r="AN15" s="12"/>
-      <c r="AO15" s="12"/>
-      <c r="AP15" s="12"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
     </row>
     <row r="16" spans="2:42" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
@@ -4877,10 +3660,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
@@ -4890,10 +3673,10 @@
         <v>1</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -4901,10 +3684,10 @@
         <v>1</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
@@ -4912,15 +3695,15 @@
         <v>1</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Z17" s="6" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
@@ -4930,10 +3713,10 @@
         <v>1</v>
       </c>
       <c r="AG17" s="5" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="AH17" s="5" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="AI17" s="5"/>
       <c r="AJ17" s="5"/>
@@ -4941,10 +3724,10 @@
         <v>1</v>
       </c>
       <c r="AM17" s="5" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="AN17" s="5" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="AO17" s="5"/>
       <c r="AP17" s="5"/>
@@ -4954,10 +3737,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
@@ -4989,10 +3772,10 @@
         <v>2</v>
       </c>
       <c r="AG18" s="5" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="AH18" s="5" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="AI18" s="5"/>
       <c r="AJ18" s="5"/>
@@ -5081,55 +3864,55 @@
       <c r="AP20" s="4"/>
     </row>
     <row r="21" spans="2:42" x14ac:dyDescent="0.15">
-      <c r="B21" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="H21" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="N21" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="T21" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Z21" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AF21" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
-      <c r="AI21" s="13"/>
-      <c r="AJ21" s="13"/>
-      <c r="AL21" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM21" s="13"/>
-      <c r="AN21" s="13"/>
-      <c r="AO21" s="13"/>
-      <c r="AP21" s="13"/>
+      <c r="B21" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="H21" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="N21" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="T21" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Z21" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AF21" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="14"/>
+      <c r="AJ21" s="14"/>
+      <c r="AL21" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM21" s="14"/>
+      <c r="AN21" s="14"/>
+      <c r="AO21" s="14"/>
+      <c r="AP21" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="64">
@@ -5202,7 +3985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB016A0-5CF5-48B3-B7CE-E40AFC5A4CC0}">
   <dimension ref="B1:F21"/>
   <sheetViews>
@@ -5222,20 +4005,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B1" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3" s="3"/>
@@ -5246,10 +4029,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="3"/>
@@ -5259,54 +4042,54 @@
       <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+        <v>73</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
@@ -5315,10 +4098,10 @@
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
@@ -5338,22 +4121,22 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
@@ -5374,7 +4157,7 @@
     </row>
     <row r="17" spans="2:6" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="6" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -5403,11 +4186,11 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/final/tests/studysync_tests.xlsx
+++ b/final/tests/studysync_tests.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gagefleming/university_of_london/current_courses/agile_software_projects/cm2020/final/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98629A40-E70D-C443-B3BE-426CA1061AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5B7F41-9871-354B-96FB-D6F4369E89F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="4.3.4" sheetId="4" r:id="rId1"/>
-    <sheet name="4.3.5" sheetId="5" r:id="rId2"/>
-    <sheet name="4.3.6" sheetId="6" r:id="rId3"/>
-    <sheet name="4.3.7" sheetId="7" r:id="rId4"/>
+    <sheet name="4.3.5" sheetId="5" r:id="rId1"/>
+    <sheet name="4.3.6" sheetId="6" r:id="rId2"/>
+    <sheet name="4.3.7" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="99">
   <si>
     <t>Objective and Priority</t>
   </si>
@@ -91,57 +90,6 @@
   </si>
   <si>
     <t>4.3.7 Adjust Time-Tracker Settings</t>
-  </si>
-  <si>
-    <t>4.3.4 Whitelist all Attempted URL Queries</t>
-  </si>
-  <si>
-    <t>Verify user can access a given URL</t>
-  </si>
-  <si>
-    <t>4.3.4.1</t>
-  </si>
-  <si>
-    <t>4.3.4.1.1</t>
-  </si>
-  <si>
-    <t>4.3.4.1.2</t>
-  </si>
-  <si>
-    <t>4.3.4.1.3</t>
-  </si>
-  <si>
-    <t>Test that StudySync retrieve all URL queries made by the web browser</t>
-  </si>
-  <si>
-    <t>Test that StudySync compare all URL query domain names made by the web browser with the whitelist.</t>
-  </si>
-  <si>
-    <t>Test that If the Domain name is on the whitelist, StudySync shall allow access to the website.</t>
-  </si>
-  <si>
-    <t>Test that If the Domain name is not on the whitelist, StudySync shall not allow access to the website.</t>
-  </si>
-  <si>
-    <t>Continue to test 4.3.4.1.2</t>
-  </si>
-  <si>
-    <t>Continue to test 4.3.4.1.3</t>
-  </si>
-  <si>
-    <t>Continue to test 4.3.4.1.4</t>
-  </si>
-  <si>
-    <t>4.3.4.1.4</t>
-  </si>
-  <si>
-    <t>Continue to test 4.3.4.1.5</t>
-  </si>
-  <si>
-    <t>4.3.4.1.5</t>
-  </si>
-  <si>
-    <t>Continue to test 4.3.5.1.1</t>
   </si>
   <si>
     <t>4.3.5.1</t>
@@ -257,99 +205,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>www.youtube.com website should be displayed</t>
-  </si>
-  <si>
-    <t>Click on th url entered www.youtube.com. Confirm it navigates to the website</t>
-  </si>
-  <si>
-    <t>Test that StudySync alerts the user via a custom URL page indicatng the requested URL has been blocked.</t>
-  </si>
-  <si>
-    <t>Click on th url entered idp.uolia.london.ac.uk Confirm it navigates to the website</t>
-  </si>
-  <si>
-    <t>idp.uolia.london.ac.uk website should be displayed</t>
-  </si>
-  <si>
-    <t>Click on the url entered zoom.us Confirm it navigates to the website</t>
-  </si>
-  <si>
-    <t>zoom.us website should be displayed</t>
-  </si>
-  <si>
-    <t>Click on the url entered my.london.ac.uk Confirm it navigates to the website</t>
-  </si>
-  <si>
-    <t>my.london.ac.uk website should be displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verfiy domain name www.youtube.com website with the whtelisted  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">verfiy domain name idp.uolia.london.ac.uk website with the whtelisted  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">verfiy domain name zoom.us website with the whtelisted  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">verfiy domain name my.london.ac.uk website with the whtelisted  </t>
-  </si>
-  <si>
-    <t>Verify www.youtube.com website is allowed with an access</t>
-  </si>
-  <si>
-    <t>Verify  idp.uolia.london.ac.uk website is allowed with an access</t>
-  </si>
-  <si>
-    <t>Verify zoom.us website is allowed with an access</t>
-  </si>
-  <si>
-    <t>Verify  my.london.ac.uk website  is allowed with an access</t>
-  </si>
-  <si>
-    <t>Enter www.wikipedia.com. This url is not whitelisted</t>
-  </si>
-  <si>
-    <t>Verify studysync asks users to allow www.wikipedia.com.</t>
-  </si>
-  <si>
-    <t>Confirm when cancel is clicked it does not allow access</t>
-  </si>
-  <si>
-    <t>Check www.wikipedia.co is not allowed with an access</t>
-  </si>
-  <si>
-    <t>Startup: Open browser, click on StudySync extension, Click on settings page, Click on  whitelist menu</t>
-  </si>
-  <si>
-    <t>Startup:Open browser, click on StudySync extension, Click on settings page, Click on  whitelist menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure https://idp.uolia.london.ac.uk is not whitelisted.  When https://idp.uolia.london.ac.uk is entered in browser tab. Confirm a new custome window is displayed  indicating Browser limiter is on. Do you want to allow "idp.uolia.london.ac.uk" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if  studysync displays custom url page indicating Browser limiter is on. Do you want to allow "idp.uolia.london.ac.uk" </t>
-  </si>
-  <si>
-    <t>Clicking on Cancel button should not allow access to https://idp.uolia.london.ac.uk</t>
-  </si>
-  <si>
-    <t>Check if the browser does not allow access to https://idp.uolia.london.ac.uk</t>
-  </si>
-  <si>
-    <t>Clicking on Allow button should allow access to https://idp.uolia.london.ac.uk</t>
-  </si>
-  <si>
-    <t>Check if the browser allow access to https://idp.uolia.london.ac.uk</t>
-  </si>
-  <si>
-    <t>Clicking on Allow button will add this url to whitelist   https://idp.uolia.london.ac.uk</t>
-  </si>
-  <si>
-    <t>Check if the studysyn adds url to whitelist   https://idp.uolia.london.ac.uk</t>
   </si>
   <si>
     <t>Test that StudySync confirm if the full URL is related to a course selected by the user in the time tracker settings.</t>
@@ -612,19 +467,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1011,950 +866,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9592081E-B80D-4E9B-8A22-A8CCF80B34DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9102DA5-F2C5-4BA6-8D73-AC77898C0DB8}">
   <dimension ref="B1:AD21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
-    <col min="10" max="10" width="24.5" customWidth="1"/>
-    <col min="11" max="11" width="28.5" customWidth="1"/>
-    <col min="12" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.6640625" customWidth="1"/>
-    <col min="16" max="16" width="23" customWidth="1"/>
-    <col min="17" max="17" width="18.1640625" customWidth="1"/>
-    <col min="18" max="18" width="32.5" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.6640625" customWidth="1"/>
-    <col min="22" max="22" width="25.5" customWidth="1"/>
-    <col min="23" max="23" width="36.1640625" customWidth="1"/>
-    <col min="24" max="24" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.5" customWidth="1"/>
-    <col min="28" max="28" width="27.5" customWidth="1"/>
-    <col min="30" max="30" width="17.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="H4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="N4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="T4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="9"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Z4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-    </row>
-    <row r="5" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="U5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="U6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA6" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B7" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="H7" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="N7" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="T7" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Z7" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-    </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="H8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="N8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="T8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Z8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-    </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B9" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="H9" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="N9" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="T9" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Z9" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-    </row>
-    <row r="10" spans="2:30" ht="14" x14ac:dyDescent="0.15">
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V10" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="W10" s="15"/>
-      <c r="X10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB10" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-    </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-    </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="H13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="N13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="T13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Z13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14"/>
-    </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B15" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="H15" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="N15" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="T15" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Z15" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-    </row>
-    <row r="16" spans="2:30" ht="14" x14ac:dyDescent="0.15">
-      <c r="B16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="T16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="U16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="V16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="W16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="X16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD16" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:30" ht="98" x14ac:dyDescent="0.15">
-      <c r="B17" s="6">
-        <v>1</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="6">
-        <v>1</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N17" s="6">
-        <v>1</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="T17" s="6">
-        <v>1</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="V17" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z17" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB17" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-    </row>
-    <row r="18" spans="2:30" ht="84" x14ac:dyDescent="0.15">
-      <c r="B18" s="6">
-        <v>2</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="6">
-        <v>2</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N18" s="6">
-        <v>2</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="T18" s="6">
-        <v>2</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="V18" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z18" s="6">
-        <v>2</v>
-      </c>
-      <c r="AA18" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB18" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-    </row>
-    <row r="19" spans="2:30" ht="70" x14ac:dyDescent="0.15">
-      <c r="B19" s="6">
-        <v>3</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="6">
-        <v>3</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N19" s="6">
-        <v>3</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="T19" s="6"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Z19" s="6">
-        <v>3</v>
-      </c>
-      <c r="AA19" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB19" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-    </row>
-    <row r="20" spans="2:30" ht="84" x14ac:dyDescent="0.15">
-      <c r="B20" s="6">
-        <v>4</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="1">
-        <v>4</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N20" s="6">
-        <v>4</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="T20" s="1"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Z20" s="6">
-        <v>4</v>
-      </c>
-      <c r="AA20" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB20" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-    </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B21" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="H21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="N21" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="T21" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Z21" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AA6:AC6"/>
-    <mergeCell ref="Z7:AD7"/>
-    <mergeCell ref="Z8:AD8"/>
-    <mergeCell ref="Z9:AD9"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="Z13:AD13"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="N21:R21"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="Z15:AD15"/>
-    <mergeCell ref="Z21:AD21"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="O6:Q6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9102DA5-F2C5-4BA6-8D73-AC77898C0DB8}">
-  <dimension ref="B1:AD21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -1990,20 +905,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B3" s="3"/>
@@ -2014,46 +929,46 @@
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="H4" s="9" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="N4" s="9" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="P4" s="9"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="T4" s="9" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="V4" s="9"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Z4" s="9" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AA4" s="10" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AB4" s="9"/>
       <c r="AC4" s="3"/>
@@ -2063,226 +978,226 @@
       <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
       <c r="L5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
       <c r="R5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="T5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
       <c r="X5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Z5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AA5" s="13" t="s">
+      <c r="AA5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
       <c r="AD5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+        <v>23</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+        <v>26</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
       <c r="L6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
+        <v>28</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
       <c r="R6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="U6" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
+        <v>30</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
       <c r="X6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="Z6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA6" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
+        <v>32</v>
+      </c>
+      <c r="AA6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
       <c r="AD6" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="H7" s="14" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="H7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="N7" s="14" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="N7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="T7" s="14" t="s">
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="T7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Z7" s="14" t="s">
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Z7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="H8" s="14" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="H8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="N8" s="14" t="s">
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="N8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="T8" s="14" t="s">
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="T8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Z8" s="14" t="s">
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Z8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="H9" s="15" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="H9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="N9" s="15" t="s">
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="N9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="T9" s="15" t="s">
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="T9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Z9" s="15" t="s">
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Z9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
     </row>
     <row r="10" spans="2:30" ht="14" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
@@ -2291,10 +1206,10 @@
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="15"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
@@ -2304,10 +1219,10 @@
       <c r="I10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="15"/>
+      <c r="K10" s="16"/>
       <c r="L10" s="2" t="s">
         <v>5</v>
       </c>
@@ -2317,10 +1232,10 @@
       <c r="O10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P10" s="15" t="s">
+      <c r="P10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="15"/>
+      <c r="Q10" s="16"/>
       <c r="R10" s="2" t="s">
         <v>5</v>
       </c>
@@ -2330,10 +1245,10 @@
       <c r="U10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="V10" s="15" t="s">
+      <c r="V10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="W10" s="15"/>
+      <c r="W10" s="16"/>
       <c r="X10" s="2" t="s">
         <v>5</v>
       </c>
@@ -2343,10 +1258,10 @@
       <c r="AA10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AB10" s="15" t="s">
+      <c r="AB10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AC10" s="15"/>
+      <c r="AC10" s="16"/>
       <c r="AD10" s="2" t="s">
         <v>5</v>
       </c>
@@ -2406,78 +1321,78 @@
       <c r="AD12" s="1"/>
     </row>
     <row r="13" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="H13" s="14" t="s">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="H13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="N13" s="14" t="s">
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="N13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="T13" s="14" t="s">
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="T13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Z13" s="14" t="s">
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Z13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="H15" s="13" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="H15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="N15" s="13" t="s">
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="N15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="T15" s="13" t="s">
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="T15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Z15" s="13" t="s">
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Z15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
     </row>
     <row r="16" spans="2:30" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
@@ -2561,10 +1476,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
@@ -2574,10 +1489,10 @@
         <v>1</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5" t="s">
@@ -2587,10 +1502,10 @@
         <v>1</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="5"/>
       <c r="R17" s="5" t="s">
@@ -2600,10 +1515,10 @@
         <v>1</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="W17" s="5"/>
       <c r="X17" s="5" t="s">
@@ -2613,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
@@ -2623,7 +1538,7 @@
     </row>
     <row r="18" spans="2:30" ht="56" x14ac:dyDescent="0.15">
       <c r="B18" s="6" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -2649,10 +1564,10 @@
         <v>2</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="W18" s="5"/>
       <c r="X18" s="5" t="s">
@@ -2690,10 +1605,10 @@
         <v>3</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="W19" s="5"/>
       <c r="X19" s="5" t="s">
@@ -2725,10 +1640,10 @@
         <v>4</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="W20" s="4"/>
       <c r="X20" s="5" t="s">
@@ -2741,49 +1656,75 @@
       <c r="AD20" s="4"/>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.15">
-      <c r="B21" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="H21" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="N21" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="T21" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Z21" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="14"/>
+      <c r="B21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="H21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="N21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="T21" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Z21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="N21:R21"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="AA6:AC6"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="Z7:AD7"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="Z8:AD8"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="Z9:AD9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="AB10:AC10"/>
     <mergeCell ref="N13:R13"/>
     <mergeCell ref="T13:X13"/>
     <mergeCell ref="Z13:AD13"/>
@@ -2794,37 +1735,11 @@
     <mergeCell ref="Z15:AD15"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="H13:L13"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="Z9:AD9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="Z7:AD7"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="Z8:AD8"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="AA6:AC6"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="N21:R21"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="Z21:AD21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="U18" r:id="rId1" display="https://www.coursera.org/learn/uol-cm2020-agile-software-projects/resources " xr:uid="{BDCA3CD4-E82F-4D26-9EE6-8E427DEFAB74}"/>
@@ -2833,7 +1748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ADCB92-BF29-46E1-BB22-E1FC23D9F8E7}">
   <dimension ref="B1:AP21"/>
   <sheetViews>
@@ -2881,20 +1796,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:42" x14ac:dyDescent="0.15">
-      <c r="B1" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="2:42" x14ac:dyDescent="0.15">
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B3" s="3"/>
@@ -2905,64 +1820,64 @@
     </row>
     <row r="4" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="H4" s="9" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="N4" s="9" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="P4" s="9"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="T4" s="9" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="V4" s="9"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Z4" s="9" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="AA4" s="10" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="AB4" s="9"/>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
       <c r="AF4" s="9" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="AG4" s="10" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="AH4" s="9"/>
       <c r="AI4" s="3"/>
       <c r="AJ4" s="3"/>
       <c r="AL4" s="9" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="AM4" s="10" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="AN4" s="9"/>
       <c r="AO4" s="3"/>
@@ -2972,312 +1887,312 @@
       <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
       <c r="L5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
       <c r="R5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="T5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
       <c r="X5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Z5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AA5" s="13" t="s">
+      <c r="AA5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
       <c r="AD5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="AF5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AG5" s="13" t="s">
+      <c r="AG5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
       <c r="AJ5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="AL5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AM5" s="13" t="s">
+      <c r="AM5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="13"/>
+      <c r="AN5" s="12"/>
+      <c r="AO5" s="12"/>
       <c r="AP5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:42" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+        <v>38</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+        <v>40</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
       <c r="L6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
+        <v>42</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
       <c r="R6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="U6" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
+        <v>44</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
       <c r="X6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="Z6" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA6" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
+        <v>46</v>
+      </c>
+      <c r="AA6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
       <c r="AD6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="AF6" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG6" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="17"/>
+        <v>48</v>
+      </c>
+      <c r="AG6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
       <c r="AJ6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="AL6" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM6" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN6" s="17"/>
-      <c r="AO6" s="17"/>
+        <v>50</v>
+      </c>
+      <c r="AM6" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14"/>
       <c r="AP6" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:42" x14ac:dyDescent="0.15">
-      <c r="B7" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="H7" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="N7" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="T7" s="14" t="s">
+      <c r="B7" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="H7" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="N7" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="T7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Z7" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AF7" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
-      <c r="AL7" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="AM7" s="14"/>
-      <c r="AN7" s="14"/>
-      <c r="AO7" s="14"/>
-      <c r="AP7" s="14"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Z7" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AF7" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AL7" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
+      <c r="AO7" s="15"/>
+      <c r="AP7" s="15"/>
     </row>
     <row r="8" spans="2:42" x14ac:dyDescent="0.15">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="H8" s="14" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="H8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="N8" s="14" t="s">
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="N8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="T8" s="14" t="s">
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="T8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Z8" s="14" t="s">
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Z8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AF8" s="14" t="s">
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AF8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="14"/>
-      <c r="AJ8" s="14"/>
-      <c r="AL8" s="14" t="s">
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
+      <c r="AL8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AM8" s="14"/>
-      <c r="AN8" s="14"/>
-      <c r="AO8" s="14"/>
-      <c r="AP8" s="14"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="15"/>
+      <c r="AO8" s="15"/>
+      <c r="AP8" s="15"/>
     </row>
     <row r="9" spans="2:42" x14ac:dyDescent="0.15">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="H9" s="15" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="H9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="N9" s="15" t="s">
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="N9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="T9" s="15" t="s">
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="T9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Z9" s="15" t="s">
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Z9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AF9" s="15" t="s">
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AF9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="15"/>
-      <c r="AL9" s="15" t="s">
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+      <c r="AL9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AM9" s="15"/>
-      <c r="AN9" s="15"/>
-      <c r="AO9" s="15"/>
-      <c r="AP9" s="15"/>
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="16"/>
+      <c r="AO9" s="16"/>
+      <c r="AP9" s="16"/>
     </row>
     <row r="10" spans="2:42" ht="14" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
@@ -3286,10 +2201,10 @@
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="15"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
@@ -3299,10 +2214,10 @@
       <c r="I10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="15"/>
+      <c r="K10" s="16"/>
       <c r="L10" s="2" t="s">
         <v>5</v>
       </c>
@@ -3312,10 +2227,10 @@
       <c r="O10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P10" s="15" t="s">
+      <c r="P10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="15"/>
+      <c r="Q10" s="16"/>
       <c r="R10" s="2" t="s">
         <v>5</v>
       </c>
@@ -3325,10 +2240,10 @@
       <c r="U10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="V10" s="15" t="s">
+      <c r="V10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="W10" s="15"/>
+      <c r="W10" s="16"/>
       <c r="X10" s="2" t="s">
         <v>5</v>
       </c>
@@ -3338,10 +2253,10 @@
       <c r="AA10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AB10" s="15" t="s">
+      <c r="AB10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AC10" s="15"/>
+      <c r="AC10" s="16"/>
       <c r="AD10" s="2" t="s">
         <v>5</v>
       </c>
@@ -3351,10 +2266,10 @@
       <c r="AG10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AH10" s="15" t="s">
+      <c r="AH10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AI10" s="15"/>
+      <c r="AI10" s="16"/>
       <c r="AJ10" s="2" t="s">
         <v>5</v>
       </c>
@@ -3364,10 +2279,10 @@
       <c r="AM10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AN10" s="15" t="s">
+      <c r="AN10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AO10" s="15"/>
+      <c r="AO10" s="16"/>
       <c r="AP10" s="2" t="s">
         <v>5</v>
       </c>
@@ -3447,106 +2362,106 @@
       <c r="AP12" s="1"/>
     </row>
     <row r="13" spans="2:42" x14ac:dyDescent="0.15">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="H13" s="14" t="s">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="H13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="N13" s="14" t="s">
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="N13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="T13" s="14" t="s">
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="T13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Z13" s="14" t="s">
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Z13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14"/>
-      <c r="AF13" s="14" t="s">
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AF13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AG13" s="14"/>
-      <c r="AH13" s="14"/>
-      <c r="AI13" s="14"/>
-      <c r="AJ13" s="14"/>
-      <c r="AL13" s="14" t="s">
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="15"/>
+      <c r="AL13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AM13" s="14"/>
-      <c r="AN13" s="14"/>
-      <c r="AO13" s="14"/>
-      <c r="AP13" s="14"/>
+      <c r="AM13" s="15"/>
+      <c r="AN13" s="15"/>
+      <c r="AO13" s="15"/>
+      <c r="AP13" s="15"/>
     </row>
     <row r="15" spans="2:42" x14ac:dyDescent="0.15">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="H15" s="13" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="H15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="N15" s="13" t="s">
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="N15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="T15" s="13" t="s">
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="T15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Z15" s="13" t="s">
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Z15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AF15" s="13" t="s">
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AF15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="13"/>
-      <c r="AL15" s="13" t="s">
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="12"/>
+      <c r="AJ15" s="12"/>
+      <c r="AL15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AM15" s="13"/>
-      <c r="AN15" s="13"/>
-      <c r="AO15" s="13"/>
-      <c r="AP15" s="13"/>
+      <c r="AM15" s="12"/>
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="12"/>
     </row>
     <row r="16" spans="2:42" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
@@ -3660,10 +2575,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
@@ -3673,10 +2588,10 @@
         <v>1</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -3684,10 +2599,10 @@
         <v>1</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
@@ -3695,15 +2610,15 @@
         <v>1</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Z17" s="6" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
@@ -3713,10 +2628,10 @@
         <v>1</v>
       </c>
       <c r="AG17" s="5" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="AH17" s="5" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="AI17" s="5"/>
       <c r="AJ17" s="5"/>
@@ -3724,10 +2639,10 @@
         <v>1</v>
       </c>
       <c r="AM17" s="5" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="AN17" s="5" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="AO17" s="5"/>
       <c r="AP17" s="5"/>
@@ -3737,10 +2652,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
@@ -3772,10 +2687,10 @@
         <v>2</v>
       </c>
       <c r="AG18" s="5" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="AH18" s="5" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="AI18" s="5"/>
       <c r="AJ18" s="5"/>
@@ -3864,58 +2779,106 @@
       <c r="AP20" s="4"/>
     </row>
     <row r="21" spans="2:42" x14ac:dyDescent="0.15">
-      <c r="B21" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="H21" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="N21" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="T21" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Z21" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="14"/>
-      <c r="AF21" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="14"/>
-      <c r="AI21" s="14"/>
-      <c r="AJ21" s="14"/>
-      <c r="AL21" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM21" s="14"/>
-      <c r="AN21" s="14"/>
-      <c r="AO21" s="14"/>
-      <c r="AP21" s="14"/>
+      <c r="B21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="H21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="N21" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="T21" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Z21" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AF21" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG21" s="15"/>
+      <c r="AH21" s="15"/>
+      <c r="AI21" s="15"/>
+      <c r="AJ21" s="15"/>
+      <c r="AL21" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM21" s="15"/>
+      <c r="AN21" s="15"/>
+      <c r="AO21" s="15"/>
+      <c r="AP21" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="AA6:AC6"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="Z7:AD7"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="Z8:AD8"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="Z9:AD9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AF13:AJ13"/>
+    <mergeCell ref="AF15:AJ15"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="N21:R21"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="Z13:AD13"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="Z15:AD15"/>
+    <mergeCell ref="B13:F13"/>
     <mergeCell ref="AF21:AJ21"/>
     <mergeCell ref="AM5:AO5"/>
     <mergeCell ref="AM6:AO6"/>
@@ -3932,60 +2895,12 @@
     <mergeCell ref="AH10:AI10"/>
     <mergeCell ref="AF8:AJ8"/>
     <mergeCell ref="AF7:AJ7"/>
-    <mergeCell ref="AF13:AJ13"/>
-    <mergeCell ref="AF15:AJ15"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="N21:R21"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="Z21:AD21"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="Z13:AD13"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="Z15:AD15"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="Z9:AD9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="Z7:AD7"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="Z8:AD8"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="AA6:AC6"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="H9:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB016A0-5CF5-48B3-B7CE-E40AFC5A4CC0}">
   <dimension ref="B1:F21"/>
   <sheetViews>
@@ -4005,20 +2920,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3" s="3"/>
@@ -4029,10 +2944,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="3"/>
@@ -4042,54 +2957,54 @@
       <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+        <v>56</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
@@ -4098,10 +3013,10 @@
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="15"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
@@ -4121,22 +3036,22 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="2:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
@@ -4157,7 +3072,7 @@
     </row>
     <row r="17" spans="2:6" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="6" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -4186,11 +3101,11 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
